--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-350 (Аквадив 0.35 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-350 (Аквадив 0.35 л.).xlsx
@@ -122,9 +122,6 @@
     <t>Воронка</t>
   </si>
   <si>
-    <t>Начальник СПО                                             А.Д. Гавриленко</t>
-  </si>
-  <si>
     <t>Втулка плунжера</t>
   </si>
   <si>
@@ -137,8 +134,32 @@
     <t>Кол-во брака, шт</t>
   </si>
   <si>
+    <t>Дата поставки  26.09.19 (c остаточным ресурсом 100 %)</t>
+  </si>
+  <si>
+    <t>ХХI-В-28-2-350</t>
+  </si>
+  <si>
+    <t>Остаточный ресурс детали, %</t>
+  </si>
+  <si>
+    <t>Фактически пригодных деталей, шт.</t>
+  </si>
+  <si>
+    <t>Кол-во непригодных, шт.</t>
+  </si>
+  <si>
+    <t>Кол-во по ТТН, шт</t>
+  </si>
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>Начальник УРФ                                             А.Д. Гавриленко</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Формокомплект бутылки  "Аквадив 0.35 л." тип ХХI-В-28-2-350 (владелец ООО "Ведатранзит" </t>
+      <t xml:space="preserve">Формокомплект бутылки  "Аквадив 0.35 л." тип ХХI-В-28-2-350 (владелец СООО "Аквадив" </t>
     </r>
     <r>
       <rPr>
@@ -161,27 +182,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>Дата поставки  26.09.19 (c остаточным ресурсом 100 %)</t>
-  </si>
-  <si>
-    <t>ХХI-В-28-2-350</t>
-  </si>
-  <si>
-    <t>Остаточный ресурс детали, %</t>
-  </si>
-  <si>
-    <t>Фактически пригодных деталей, шт.</t>
-  </si>
-  <si>
-    <t>Кол-во непригодных, шт.</t>
-  </si>
-  <si>
-    <t>Кол-во по ТТН, шт</t>
-  </si>
-  <si>
-    <t>№ п/п</t>
   </si>
 </sst>
 </file>
@@ -999,6 +999,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1011,9 +1018,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1026,12 +1030,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1341,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:L16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1362,29 +1360,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="100" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
+      <c r="A1" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="A2" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="39"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1406,7 +1404,7 @@
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
       <c r="A4" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>0</v>
@@ -1415,30 +1413,30 @@
         <v>1</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="113" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="102" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="43" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="101" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1450,7 +1448,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="51">
         <v>24</v>
@@ -1478,7 +1476,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="9">
         <v>24</v>
@@ -1506,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="9">
         <v>32</v>
@@ -1534,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="9">
         <v>32</v>
@@ -1562,7 +1560,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="9">
         <v>18</v>
@@ -1587,10 +1585,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="9">
         <v>20</v>
@@ -1618,7 +1616,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="9">
         <v>60</v>
@@ -1694,7 +1692,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="9">
         <v>50</v>
@@ -1722,7 +1720,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="9">
         <v>60</v>
@@ -1750,7 +1748,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="55">
         <v>24</v>
@@ -1771,7 +1769,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="77"/>
       <c r="C17" s="1"/>
@@ -2045,7 +2043,7 @@
       <c r="K31" s="85"/>
       <c r="L31" s="85"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:11">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2057,13 +2055,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A35" s="101" t="s">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A35" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2071,11 +2069,11 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="111" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="111"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="12" t="s">
         <v>17</v>
       </c>
@@ -2089,12 +2087,12 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="109">
+    <row r="37" spans="1:11">
+      <c r="A37" s="111">
         <f>A20-F31</f>
         <v>15179294</v>
       </c>
-      <c r="B37" s="110"/>
+      <c r="B37" s="112"/>
       <c r="C37" s="89">
         <f>1-G31</f>
         <v>0.9035294047619048</v>
@@ -2103,18 +2101,16 @@
         <f>(C37/0.8)*100</f>
         <v>112.94117559523809</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="106"/>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="E37" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="100"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2122,7 +2118,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:11">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2137,7 +2133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.6">
+    <row r="40" spans="1:11" ht="15.6">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2149,7 +2145,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:11">
       <c r="A41" s="70"/>
       <c r="B41" s="70"/>
       <c r="C41" s="70"/>
@@ -2158,10 +2154,10 @@
       <c r="F41" s="70"/>
       <c r="G41" s="70"/>
       <c r="H41" s="70"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="108"/>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="I41" s="109"/>
+      <c r="J41" s="110"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="71"/>
       <c r="B42" s="72"/>
       <c r="C42" s="72"/>
@@ -2171,7 +2167,7 @@
       <c r="G42" s="73"/>
       <c r="H42" s="72"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:11">
       <c r="A43" s="71"/>
       <c r="B43" s="72"/>
       <c r="C43" s="72"/>
@@ -2181,7 +2177,7 @@
       <c r="G43" s="73"/>
       <c r="H43" s="72"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:11">
       <c r="A44" s="71"/>
       <c r="B44" s="72"/>
       <c r="C44" s="72"/>
@@ -2191,7 +2187,7 @@
       <c r="G44" s="73"/>
       <c r="H44" s="72"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:11">
       <c r="A45" s="71"/>
       <c r="B45" s="72"/>
       <c r="C45" s="72"/>
@@ -2201,7 +2197,7 @@
       <c r="G45" s="73"/>
       <c r="H45" s="72"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:11">
       <c r="A46" s="71"/>
       <c r="B46" s="72"/>
       <c r="C46" s="72"/>
@@ -2211,7 +2207,7 @@
       <c r="G46" s="73"/>
       <c r="H46" s="72"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:11">
       <c r="A47" s="71"/>
       <c r="B47" s="72"/>
       <c r="C47" s="74"/>
@@ -2221,7 +2217,7 @@
       <c r="G47" s="74"/>
       <c r="H47" s="74"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:11">
       <c r="A48" s="71"/>
       <c r="B48" s="72"/>
       <c r="C48" s="72"/>
@@ -2253,9 +2249,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="104"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="107"/>
       <c r="E51" s="76"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2272,8 +2268,8 @@
       <c r="F52" s="70"/>
       <c r="G52" s="70"/>
       <c r="H52" s="70"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="108"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="110"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="71"/>
@@ -2284,8 +2280,8 @@
       <c r="F53" s="73"/>
       <c r="G53" s="73"/>
       <c r="H53" s="72"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="102"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="71"/>
@@ -2296,8 +2292,8 @@
       <c r="F54" s="74"/>
       <c r="G54" s="74"/>
       <c r="H54" s="74"/>
-      <c r="I54" s="102"/>
-      <c r="J54" s="102"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="105"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2310,18 +2306,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="107"/>
-      <c r="C60" s="108"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="110"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="107"/>
-      <c r="C67" s="108"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="110"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2334,7 +2330,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G37:L37"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-350 (Аквадив 0.35 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-350 (Аквадив 0.35 л.).xlsx
@@ -1006,20 +1006,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1029,6 +1015,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1339,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1360,29 +1360,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
       <c r="F2" s="39"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -2056,12 +2056,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2070,10 +2070,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="113" t="s">
+      <c r="A36" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="113"/>
+      <c r="B36" s="107"/>
       <c r="C36" s="12" t="s">
         <v>17</v>
       </c>
@@ -2088,11 +2088,11 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="111">
+      <c r="A37" s="105">
         <f>A20-F31</f>
         <v>15179294</v>
       </c>
-      <c r="B37" s="112"/>
+      <c r="B37" s="106"/>
       <c r="C37" s="89">
         <f>1-G31</f>
         <v>0.9035294047619048</v>
@@ -2154,8 +2154,8 @@
       <c r="F41" s="70"/>
       <c r="G41" s="70"/>
       <c r="H41" s="70"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="110"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="104"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="71"/>
@@ -2249,9 +2249,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="107"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="112"/>
       <c r="E51" s="76"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2268,8 +2268,8 @@
       <c r="F52" s="70"/>
       <c r="G52" s="70"/>
       <c r="H52" s="70"/>
-      <c r="I52" s="109"/>
-      <c r="J52" s="110"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="104"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="71"/>
@@ -2280,8 +2280,8 @@
       <c r="F53" s="73"/>
       <c r="G53" s="73"/>
       <c r="H53" s="72"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="108"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="71"/>
@@ -2292,8 +2292,8 @@
       <c r="F54" s="74"/>
       <c r="G54" s="74"/>
       <c r="H54" s="74"/>
-      <c r="I54" s="105"/>
-      <c r="J54" s="105"/>
+      <c r="I54" s="108"/>
+      <c r="J54" s="108"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2306,18 +2306,23 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="109"/>
-      <c r="C60" s="110"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="104"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="109"/>
-      <c r="C67" s="110"/>
+      <c r="B67" s="103"/>
+      <c r="C67" s="104"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2325,11 +2330,6 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-350 (Аквадив 0.35 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-350 (Аквадив 0.35 л.).xlsx
@@ -1006,6 +1006,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1015,20 +1029,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1339,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1360,29 +1360,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="39"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -2056,12 +2056,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2070,10 +2070,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="107" t="s">
+      <c r="A36" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="107"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="12" t="s">
         <v>17</v>
       </c>
@@ -2088,11 +2088,11 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="105">
+      <c r="A37" s="111">
         <f>A20-F31</f>
         <v>15179294</v>
       </c>
-      <c r="B37" s="106"/>
+      <c r="B37" s="112"/>
       <c r="C37" s="89">
         <f>1-G31</f>
         <v>0.9035294047619048</v>
@@ -2154,8 +2154,8 @@
       <c r="F41" s="70"/>
       <c r="G41" s="70"/>
       <c r="H41" s="70"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="104"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="110"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="71"/>
@@ -2249,9 +2249,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="112"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="107"/>
       <c r="E51" s="76"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2268,8 +2268,8 @@
       <c r="F52" s="70"/>
       <c r="G52" s="70"/>
       <c r="H52" s="70"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="104"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="110"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="71"/>
@@ -2280,8 +2280,8 @@
       <c r="F53" s="73"/>
       <c r="G53" s="73"/>
       <c r="H53" s="72"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="108"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="71"/>
@@ -2292,8 +2292,8 @@
       <c r="F54" s="74"/>
       <c r="G54" s="74"/>
       <c r="H54" s="74"/>
-      <c r="I54" s="108"/>
-      <c r="J54" s="108"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="105"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2306,23 +2306,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="103"/>
-      <c r="C60" s="104"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="110"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="103"/>
-      <c r="C67" s="104"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="110"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2330,6 +2325,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-350 (Аквадив 0.35 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-350 (Аквадив 0.35 л.).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Наименование деталей</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>Фактическое количество деталей по акту приемки, шт.</t>
-  </si>
-  <si>
-    <t>В дополнительных поставках детали оставшиеся со старого формокомплекта!!!</t>
   </si>
   <si>
     <t>Кол-во брака, шт</t>
@@ -1006,20 +1003,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1029,6 +1012,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1339,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1360,29 +1357,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
+      <c r="A1" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="108" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="A2" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
       <c r="F2" s="39"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1404,7 +1401,7 @@
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
       <c r="A4" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>0</v>
@@ -1413,19 +1410,19 @@
         <v>1</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="43" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="102" t="s">
         <v>2</v>
@@ -1434,7 +1431,7 @@
         <v>25</v>
       </c>
       <c r="K4" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4" s="101" t="s">
         <v>3</v>
@@ -1448,7 +1445,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="51">
         <v>24</v>
@@ -1476,7 +1473,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="9">
         <v>24</v>
@@ -1504,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="9">
         <v>32</v>
@@ -1532,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="9">
         <v>32</v>
@@ -1560,7 +1557,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="9">
         <v>18</v>
@@ -1588,7 +1585,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="9">
         <v>20</v>
@@ -1616,7 +1613,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="9">
         <v>60</v>
@@ -1692,7 +1689,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="9">
         <v>50</v>
@@ -1720,7 +1717,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="9">
         <v>60</v>
@@ -1748,7 +1745,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="55">
         <v>24</v>
@@ -1768,9 +1765,7 @@
       <c r="L16" s="87"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="78" t="s">
-        <v>34</v>
-      </c>
+      <c r="A17" s="78"/>
       <c r="B17" s="77"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1835,29 +1830,31 @@
         <v>16800000</v>
       </c>
       <c r="B20" s="90">
-        <v>41822</v>
+        <v>43749</v>
       </c>
       <c r="C20" s="99">
-        <v>41832</v>
+        <v>43754</v>
       </c>
       <c r="D20" s="90">
-        <v>41834</v>
-      </c>
-      <c r="E20" s="91"/>
+        <v>43756</v>
+      </c>
+      <c r="E20" s="91">
+        <v>1161008</v>
+      </c>
       <c r="F20" s="91">
-        <v>1620706</v>
+        <v>1219183</v>
       </c>
       <c r="G20" s="92">
         <f>F20/A$20</f>
-        <v>9.6470595238095244E-2</v>
+        <v>7.2570416666666665E-2</v>
       </c>
       <c r="H20" s="93">
         <f>A20-F20</f>
-        <v>15179294</v>
+        <v>15580817</v>
       </c>
       <c r="I20" s="94">
         <f>1-G20</f>
-        <v>0.9035294047619048</v>
+        <v>0.92742958333333336</v>
       </c>
       <c r="J20" s="83"/>
       <c r="K20" s="74"/>
@@ -1876,11 +1873,11 @@
       </c>
       <c r="H21" s="97">
         <f>H20-F21</f>
-        <v>15179294</v>
+        <v>15580817</v>
       </c>
       <c r="I21" s="98">
         <f>I20-G21</f>
-        <v>0.9035294047619048</v>
+        <v>0.92742958333333336</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2021,23 +2018,23 @@
       <c r="D31" s="22"/>
       <c r="E31" s="65">
         <f>SUM(E20:E30)</f>
-        <v>0</v>
+        <v>1161008</v>
       </c>
       <c r="F31" s="64">
         <f>SUM(F20:F30)</f>
-        <v>1620706</v>
+        <v>1219183</v>
       </c>
       <c r="G31" s="27">
         <f>SUM(G20:G30)</f>
-        <v>9.6470595238095244E-2</v>
+        <v>7.2570416666666665E-2</v>
       </c>
       <c r="H31" s="23">
         <f>A20-F31</f>
-        <v>15179294</v>
+        <v>15580817</v>
       </c>
       <c r="I31" s="36">
         <f>1-G31</f>
-        <v>0.9035294047619048</v>
+        <v>0.92742958333333336</v>
       </c>
       <c r="J31" s="85"/>
       <c r="K31" s="85"/>
@@ -2056,12 +2053,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2070,10 +2067,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="113" t="s">
+      <c r="A36" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="113"/>
+      <c r="B36" s="107"/>
       <c r="C36" s="12" t="s">
         <v>17</v>
       </c>
@@ -2088,21 +2085,21 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="111">
+      <c r="A37" s="105">
         <f>A20-F31</f>
-        <v>15179294</v>
-      </c>
-      <c r="B37" s="112"/>
+        <v>15580817</v>
+      </c>
+      <c r="B37" s="106"/>
       <c r="C37" s="89">
         <f>1-G31</f>
-        <v>0.9035294047619048</v>
+        <v>0.92742958333333336</v>
       </c>
       <c r="D37" s="24">
         <f>(C37/0.8)*100</f>
-        <v>112.94117559523809</v>
+        <v>115.92869791666666</v>
       </c>
       <c r="E37" s="100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F37" s="100"/>
       <c r="G37" s="100"/>
@@ -2154,8 +2151,8 @@
       <c r="F41" s="70"/>
       <c r="G41" s="70"/>
       <c r="H41" s="70"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="110"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="104"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="71"/>
@@ -2249,9 +2246,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="107"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="112"/>
       <c r="E51" s="76"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2268,8 +2265,8 @@
       <c r="F52" s="70"/>
       <c r="G52" s="70"/>
       <c r="H52" s="70"/>
-      <c r="I52" s="109"/>
-      <c r="J52" s="110"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="104"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="71"/>
@@ -2280,8 +2277,8 @@
       <c r="F53" s="73"/>
       <c r="G53" s="73"/>
       <c r="H53" s="72"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="108"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="71"/>
@@ -2292,8 +2289,8 @@
       <c r="F54" s="74"/>
       <c r="G54" s="74"/>
       <c r="H54" s="74"/>
-      <c r="I54" s="105"/>
-      <c r="J54" s="105"/>
+      <c r="I54" s="108"/>
+      <c r="J54" s="108"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2306,18 +2303,23 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="109"/>
-      <c r="C60" s="110"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="104"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="109"/>
-      <c r="C67" s="110"/>
+      <c r="B67" s="103"/>
+      <c r="C67" s="104"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2325,11 +2327,6 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-350 (Аквадив 0.35 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-350 (Аквадив 0.35 л.).xlsx
@@ -1003,6 +1003,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1012,20 +1026,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1336,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1357,29 +1357,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="39"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1862,22 +1862,32 @@
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
       <c r="A21" s="47"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
+      <c r="B21" s="95">
+        <v>43770</v>
+      </c>
+      <c r="C21" s="95">
+        <v>43780</v>
+      </c>
+      <c r="D21" s="95">
+        <v>43782</v>
+      </c>
+      <c r="E21" s="96">
+        <v>1914352</v>
+      </c>
+      <c r="F21" s="96">
+        <v>2025464</v>
+      </c>
       <c r="G21" s="92">
         <f>F21/A$20</f>
-        <v>0</v>
+        <v>0.12056333333333333</v>
       </c>
       <c r="H21" s="97">
         <f>H20-F21</f>
-        <v>15580817</v>
+        <v>13555353</v>
       </c>
       <c r="I21" s="98">
         <f>I20-G21</f>
-        <v>0.92742958333333336</v>
+        <v>0.80686625000000001</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2018,23 +2028,23 @@
       <c r="D31" s="22"/>
       <c r="E31" s="65">
         <f>SUM(E20:E30)</f>
-        <v>1161008</v>
+        <v>3075360</v>
       </c>
       <c r="F31" s="64">
         <f>SUM(F20:F30)</f>
-        <v>1219183</v>
+        <v>3244647</v>
       </c>
       <c r="G31" s="27">
         <f>SUM(G20:G30)</f>
-        <v>7.2570416666666665E-2</v>
+        <v>0.19313374999999999</v>
       </c>
       <c r="H31" s="23">
         <f>A20-F31</f>
-        <v>15580817</v>
+        <v>13555353</v>
       </c>
       <c r="I31" s="36">
         <f>1-G31</f>
-        <v>0.92742958333333336</v>
+        <v>0.80686625000000001</v>
       </c>
       <c r="J31" s="85"/>
       <c r="K31" s="85"/>
@@ -2053,12 +2063,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2067,10 +2077,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="107" t="s">
+      <c r="A36" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="107"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="12" t="s">
         <v>17</v>
       </c>
@@ -2085,18 +2095,18 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="105">
+      <c r="A37" s="111">
         <f>A20-F31</f>
-        <v>15580817</v>
-      </c>
-      <c r="B37" s="106"/>
+        <v>13555353</v>
+      </c>
+      <c r="B37" s="112"/>
       <c r="C37" s="89">
         <f>1-G31</f>
-        <v>0.92742958333333336</v>
+        <v>0.80686625000000001</v>
       </c>
       <c r="D37" s="24">
         <f>(C37/0.8)*100</f>
-        <v>115.92869791666666</v>
+        <v>100.85828125</v>
       </c>
       <c r="E37" s="100" t="s">
         <v>42</v>
@@ -2151,8 +2161,8 @@
       <c r="F41" s="70"/>
       <c r="G41" s="70"/>
       <c r="H41" s="70"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="104"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="110"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="71"/>
@@ -2246,9 +2256,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="112"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="107"/>
       <c r="E51" s="76"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2265,8 +2275,8 @@
       <c r="F52" s="70"/>
       <c r="G52" s="70"/>
       <c r="H52" s="70"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="104"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="110"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="71"/>
@@ -2277,8 +2287,8 @@
       <c r="F53" s="73"/>
       <c r="G53" s="73"/>
       <c r="H53" s="72"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="108"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="71"/>
@@ -2289,8 +2299,8 @@
       <c r="F54" s="74"/>
       <c r="G54" s="74"/>
       <c r="H54" s="74"/>
-      <c r="I54" s="108"/>
-      <c r="J54" s="108"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="105"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2303,23 +2313,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="103"/>
-      <c r="C60" s="104"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="110"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="103"/>
-      <c r="C67" s="104"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="110"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2327,6 +2332,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-350 (Аквадив 0.35 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-350 (Аквадив 0.35 л.).xlsx
@@ -192,7 +192,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -289,16 +289,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -757,7 +747,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -801,9 +791,6 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -831,12 +818,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,18 +848,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -940,8 +915,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1002,20 +977,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1026,6 +987,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1336,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1357,20 +1341,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="108" t="s">
@@ -1380,11 +1364,11 @@
       <c r="C2" s="108"/>
       <c r="D2" s="108"/>
       <c r="E2" s="108"/>
-      <c r="F2" s="39"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
@@ -1395,81 +1379,81 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
       <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="101" t="s">
+      <c r="H4" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="102" t="s">
+      <c r="I4" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="101" t="s">
+      <c r="L4" s="96" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="48">
+      <c r="A5" s="45">
         <v>1</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="61" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="47">
         <v>24</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="47">
         <v>24</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51">
+      <c r="F5" s="109"/>
+      <c r="G5" s="47">
         <f>E5-F5</f>
         <v>24</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="86"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="81"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="52">
+      <c r="A6" s="48">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="62" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1481,23 +1465,23 @@
       <c r="E6" s="9">
         <v>24</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="110"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G16" si="0">E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="57"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="87"/>
+      <c r="L6" s="82"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="52">
+      <c r="A7" s="48">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="62" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1509,23 +1493,25 @@
       <c r="E7" s="9">
         <v>32</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="110">
+        <v>1</v>
+      </c>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="57"/>
+        <v>31</v>
+      </c>
+      <c r="H7" s="57"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="87"/>
+      <c r="L7" s="82"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="52">
+      <c r="A8" s="48">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1537,23 +1523,25 @@
       <c r="E8" s="9">
         <v>32</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="110">
+        <v>1</v>
+      </c>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="57"/>
+        <v>31</v>
+      </c>
+      <c r="H8" s="57"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="87"/>
+      <c r="L8" s="82"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="52">
+      <c r="A9" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="63" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1565,23 +1553,23 @@
       <c r="E9" s="9">
         <v>18</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="110"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="58"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="87"/>
+      <c r="L9" s="82"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="52">
+      <c r="A10" s="48">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="62" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1593,23 +1581,23 @@
       <c r="E10" s="9">
         <v>20</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="110"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="87"/>
+      <c r="L10" s="82"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="52">
+      <c r="A11" s="48">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1621,71 +1609,71 @@
       <c r="E11" s="9">
         <v>60</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="110"/>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="58"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="35"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A12" s="52">
+      <c r="A12" s="48">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="38"/>
+      <c r="F12" s="110"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="58"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="53"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="35"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="34"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A13" s="52">
+      <c r="A13" s="48">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="63" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="25"/>
+      <c r="F13" s="110"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="62" t="s">
+      <c r="H13" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="58"/>
+      <c r="I13" s="53"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="87"/>
+      <c r="L13" s="82"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A14" s="52">
+      <c r="A14" s="48">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="62" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -1697,23 +1685,25 @@
       <c r="E14" s="9">
         <v>50</v>
       </c>
-      <c r="F14" s="37"/>
+      <c r="F14" s="110">
+        <v>5</v>
+      </c>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="58"/>
+        <v>45</v>
+      </c>
+      <c r="H14" s="57"/>
+      <c r="I14" s="53"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="87"/>
+      <c r="L14" s="82"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A15" s="52">
+      <c r="A15" s="48">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="62" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1725,48 +1715,50 @@
       <c r="E15" s="9">
         <v>60</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="110">
+        <v>1</v>
+      </c>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="58"/>
+        <v>59</v>
+      </c>
+      <c r="H15" s="57"/>
+      <c r="I15" s="53"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="87"/>
+      <c r="L15" s="82"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="53">
+      <c r="A16" s="49">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="50">
         <v>24</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="50">
         <v>24</v>
       </c>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55">
+      <c r="F16" s="111"/>
+      <c r="G16" s="50">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="87"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="82"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="78"/>
-      <c r="B17" s="77"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1778,7 +1770,7 @@
     </row>
     <row r="18" spans="1:12" ht="16.2" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="74" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="13"/>
@@ -1788,104 +1780,104 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
     </row>
     <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="88">
+      <c r="A20" s="83">
         <f>D5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="90">
+      <c r="B20" s="85">
         <v>43749</v>
       </c>
-      <c r="C20" s="99">
+      <c r="C20" s="94">
         <v>43754</v>
       </c>
-      <c r="D20" s="90">
+      <c r="D20" s="85">
         <v>43756</v>
       </c>
-      <c r="E20" s="91">
+      <c r="E20" s="86">
         <v>1161008</v>
       </c>
-      <c r="F20" s="91">
+      <c r="F20" s="86">
         <v>1219183</v>
       </c>
-      <c r="G20" s="92">
+      <c r="G20" s="87">
         <f>F20/A$20</f>
         <v>7.2570416666666665E-2</v>
       </c>
-      <c r="H20" s="93">
+      <c r="H20" s="88">
         <f>A20-F20</f>
         <v>15580817</v>
       </c>
-      <c r="I20" s="94">
+      <c r="I20" s="89">
         <f>1-G20</f>
         <v>0.92742958333333336</v>
       </c>
-      <c r="J20" s="83"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="95">
+      <c r="A21" s="44"/>
+      <c r="B21" s="90">
         <v>43770</v>
       </c>
-      <c r="C21" s="95">
+      <c r="C21" s="90">
         <v>43780</v>
       </c>
-      <c r="D21" s="95">
+      <c r="D21" s="90">
         <v>43782</v>
       </c>
-      <c r="E21" s="96">
+      <c r="E21" s="91">
         <v>1914352</v>
       </c>
-      <c r="F21" s="96">
+      <c r="F21" s="91">
         <v>2025464</v>
       </c>
-      <c r="G21" s="92">
+      <c r="G21" s="87">
         <f>F21/A$20</f>
         <v>0.12056333333333333</v>
       </c>
-      <c r="H21" s="97">
+      <c r="H21" s="92">
         <f>H20-F21</f>
         <v>13555353</v>
       </c>
-      <c r="I21" s="98">
+      <c r="I21" s="93">
         <f>I20-G21</f>
         <v>0.80686625000000001</v>
       </c>
@@ -1900,12 +1892,12 @@
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="15"/>
@@ -1917,8 +1909,8 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
@@ -1928,11 +1920,11 @@
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="84"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="79"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
@@ -1942,11 +1934,11 @@
       <c r="D25" s="10"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
@@ -1954,13 +1946,13 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="33"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
@@ -1968,13 +1960,13 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="33"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
@@ -1984,11 +1976,11 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
@@ -1998,11 +1990,11 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
@@ -2012,9 +2004,9 @@
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="32"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="31"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2026,15 +2018,15 @@
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="65">
+      <c r="E31" s="60">
         <f>SUM(E20:E30)</f>
         <v>3075360</v>
       </c>
-      <c r="F31" s="64">
+      <c r="F31" s="59">
         <f>SUM(F20:F30)</f>
         <v>3244647</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="26">
         <f>SUM(G20:G30)</f>
         <v>0.19313374999999999</v>
       </c>
@@ -2042,13 +2034,13 @@
         <f>A20-F31</f>
         <v>13555353</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="35">
         <f>1-G31</f>
         <v>0.80686625000000001</v>
       </c>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1"/>
@@ -2063,12 +2055,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2077,10 +2069,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="113" t="s">
+      <c r="A36" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="113"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="12" t="s">
         <v>17</v>
       </c>
@@ -2095,12 +2087,12 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="111">
+      <c r="A37" s="100">
         <f>A20-F31</f>
         <v>13555353</v>
       </c>
-      <c r="B37" s="112"/>
-      <c r="C37" s="89">
+      <c r="B37" s="101"/>
+      <c r="C37" s="84">
         <f>1-G31</f>
         <v>0.80686625000000001</v>
       </c>
@@ -2108,14 +2100,14 @@
         <f>(C37/0.8)*100</f>
         <v>100.85828125</v>
       </c>
-      <c r="E37" s="100" t="s">
+      <c r="E37" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1"/>
@@ -2153,113 +2145,113 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="110"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="99"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="71"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="72"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="67"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="71"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="72"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="67"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="71"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="72"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="67"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="71"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="72"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="67"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="71"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="72"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="67"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="71"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="71"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="72"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="67"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="71"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="72"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="67"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="71"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="72"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="67"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
       <c r="B51" s="106"/>
       <c r="C51" s="106"/>
       <c r="D51" s="107"/>
-      <c r="E51" s="76"/>
+      <c r="E51" s="71"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2267,40 +2259,40 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="109"/>
-      <c r="J52" s="110"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="98"/>
+      <c r="J52" s="99"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="71"/>
+      <c r="A53" s="66"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="71"/>
+      <c r="A54" s="66"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="105"/>
-      <c r="J54" s="105"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="103"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2313,18 +2305,23 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="109"/>
-      <c r="C60" s="110"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="99"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="109"/>
-      <c r="C67" s="110"/>
+      <c r="B67" s="98"/>
+      <c r="C67" s="99"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2332,11 +2329,6 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-350 (Аквадив 0.35 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-350 (Аквадив 0.35 л.).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>Наименование деталей</t>
   </si>
@@ -179,6 +179,9 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>Вес, гр. (ном. 270 гр.)</t>
   </si>
 </sst>
 </file>
@@ -747,7 +750,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -824,9 +827,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -978,6 +978,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,27 +1012,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1320,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1341,29 +1356,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="36"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1384,76 +1399,76 @@
       <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="96" t="s">
+      <c r="H4" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="97" t="s">
+      <c r="I4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="95" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="45">
+      <c r="A5" s="44">
         <v>1</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="46">
         <v>24</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="46">
         <v>24</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="47">
+      <c r="F5" s="97"/>
+      <c r="G5" s="46">
         <f>E5-F5</f>
         <v>24</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="81"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="80"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="48">
+      <c r="A6" s="47">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="61" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1465,23 +1480,23 @@
       <c r="E6" s="9">
         <v>24</v>
       </c>
-      <c r="F6" s="110"/>
+      <c r="F6" s="98"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G16" si="0">E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="82"/>
+      <c r="L6" s="81"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="48">
+      <c r="A7" s="47">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="61" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1493,25 +1508,25 @@
       <c r="E7" s="9">
         <v>32</v>
       </c>
-      <c r="F7" s="110">
+      <c r="F7" s="98">
         <v>1</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="51"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="82"/>
+      <c r="L7" s="81"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="48">
+      <c r="A8" s="47">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="61" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1523,25 +1538,25 @@
       <c r="E8" s="9">
         <v>32</v>
       </c>
-      <c r="F8" s="110">
+      <c r="F8" s="98">
         <v>1</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="52"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="51"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="82"/>
+      <c r="L8" s="81"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="48">
+      <c r="A9" s="47">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="62" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1553,23 +1568,23 @@
       <c r="E9" s="9">
         <v>18</v>
       </c>
-      <c r="F9" s="110"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="53"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="82"/>
+      <c r="L9" s="81"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="48">
+      <c r="A10" s="47">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="61" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1581,23 +1596,23 @@
       <c r="E10" s="9">
         <v>20</v>
       </c>
-      <c r="F10" s="110"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="52"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="51"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="82"/>
+      <c r="L10" s="81"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="48">
+      <c r="A11" s="47">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1609,71 +1624,71 @@
       <c r="E11" s="9">
         <v>60</v>
       </c>
-      <c r="F11" s="110"/>
+      <c r="F11" s="98"/>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="53"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="82"/>
+      <c r="L11" s="81"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A12" s="48">
+      <c r="A12" s="47">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="62" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="110"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="53"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="52"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="82"/>
+      <c r="L12" s="81"/>
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A13" s="48">
+      <c r="A13" s="47">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="62" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="110"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="53"/>
+      <c r="I13" s="52"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="82"/>
+      <c r="L13" s="81"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A14" s="48">
+      <c r="A14" s="47">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -1685,25 +1700,25 @@
       <c r="E14" s="9">
         <v>50</v>
       </c>
-      <c r="F14" s="110">
+      <c r="F14" s="98">
         <v>5</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="53"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="52"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="82"/>
+      <c r="L14" s="81"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A15" s="48">
+      <c r="A15" s="47">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="61" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1715,50 +1730,50 @@
       <c r="E15" s="9">
         <v>60</v>
       </c>
-      <c r="F15" s="110">
+      <c r="F15" s="98">
         <v>1</v>
       </c>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="H15" s="57"/>
-      <c r="I15" s="53"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="52"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="82"/>
+      <c r="L15" s="81"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="49">
+      <c r="A16" s="48">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="49">
         <v>24</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="49">
         <v>24</v>
       </c>
-      <c r="F16" s="111"/>
-      <c r="G16" s="50">
+      <c r="F16" s="99"/>
+      <c r="G16" s="49">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="82"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="81"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="73"/>
-      <c r="B17" s="72"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1770,7 +1785,7 @@
     </row>
     <row r="18" spans="1:12" ht="16.2" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="73" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="13"/>
@@ -1780,124 +1795,147 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
     </row>
     <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
+      <c r="J19" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="83">
+      <c r="A20" s="82">
         <f>D5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="85">
+      <c r="B20" s="84">
         <v>43749</v>
       </c>
-      <c r="C20" s="94">
+      <c r="C20" s="93">
         <v>43754</v>
       </c>
-      <c r="D20" s="85">
+      <c r="D20" s="84">
         <v>43756</v>
       </c>
-      <c r="E20" s="86">
+      <c r="E20" s="85">
         <v>1161008</v>
       </c>
-      <c r="F20" s="86">
+      <c r="F20" s="85">
         <v>1219183</v>
       </c>
-      <c r="G20" s="87">
+      <c r="G20" s="86">
         <f>F20/A$20</f>
         <v>7.2570416666666665E-2</v>
       </c>
-      <c r="H20" s="88">
+      <c r="H20" s="87">
         <f>A20-F20</f>
         <v>15580817</v>
       </c>
-      <c r="I20" s="89">
+      <c r="I20" s="88">
         <f>1-G20</f>
         <v>0.92742958333333336</v>
       </c>
-      <c r="J20" s="78"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="90">
+      <c r="A21" s="43"/>
+      <c r="B21" s="89">
         <v>43770</v>
       </c>
-      <c r="C21" s="90">
+      <c r="C21" s="89">
         <v>43780</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D21" s="89">
         <v>43782</v>
       </c>
-      <c r="E21" s="91">
+      <c r="E21" s="90">
         <v>1914352</v>
       </c>
-      <c r="F21" s="91">
+      <c r="F21" s="90">
         <v>2025464</v>
       </c>
-      <c r="G21" s="87">
+      <c r="G21" s="86">
         <f>F21/A$20</f>
         <v>0.12056333333333333</v>
       </c>
-      <c r="H21" s="92">
+      <c r="H21" s="91">
         <f>H20-F21</f>
         <v>13555353</v>
       </c>
-      <c r="I21" s="93">
+      <c r="I21" s="92">
         <f>I20-G21</f>
         <v>0.80686625000000001</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="112"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
       <c r="A22" s="15"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
+      <c r="B22" s="10">
+        <v>43832</v>
+      </c>
+      <c r="C22" s="10">
+        <v>43842</v>
+      </c>
+      <c r="D22" s="10">
+        <v>43857</v>
+      </c>
+      <c r="E22" s="11">
+        <v>2124144</v>
+      </c>
+      <c r="F22" s="11">
+        <v>2224286</v>
+      </c>
+      <c r="G22" s="86">
+        <f>F22/A$20</f>
+        <v>0.13239797619047619</v>
+      </c>
+      <c r="H22" s="91">
+        <f>H21-F22</f>
+        <v>11331067</v>
+      </c>
+      <c r="I22" s="92">
+        <f>I21-G22</f>
+        <v>0.67446827380952379</v>
+      </c>
+      <c r="J22" s="113">
+        <v>266</v>
+      </c>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="15"/>
@@ -1909,8 +1947,8 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="77"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
@@ -1923,8 +1961,8 @@
       <c r="G24" s="27"/>
       <c r="H24" s="32"/>
       <c r="I24" s="29"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="79"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="78"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
@@ -1937,8 +1975,8 @@
       <c r="G25" s="27"/>
       <c r="H25" s="32"/>
       <c r="I25" s="29"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="77"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
@@ -1951,8 +1989,8 @@
       <c r="G26" s="27"/>
       <c r="H26" s="32"/>
       <c r="I26" s="29"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="77"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
@@ -1965,8 +2003,8 @@
       <c r="G27" s="27"/>
       <c r="H27" s="32"/>
       <c r="I27" s="29"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="77"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
@@ -1979,8 +2017,8 @@
       <c r="G28" s="28"/>
       <c r="H28" s="32"/>
       <c r="I28" s="30"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="77"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
@@ -1993,8 +2031,8 @@
       <c r="G29" s="27"/>
       <c r="H29" s="32"/>
       <c r="I29" s="30"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="77"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
@@ -2007,7 +2045,7 @@
       <c r="G30" s="25"/>
       <c r="H30" s="33"/>
       <c r="I30" s="31"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="116"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
@@ -2018,29 +2056,29 @@
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="60">
+      <c r="E31" s="59">
         <f>SUM(E20:E30)</f>
-        <v>3075360</v>
-      </c>
-      <c r="F31" s="59">
+        <v>5199504</v>
+      </c>
+      <c r="F31" s="58">
         <f>SUM(F20:F30)</f>
-        <v>3244647</v>
+        <v>5468933</v>
       </c>
       <c r="G31" s="26">
         <f>SUM(G20:G30)</f>
-        <v>0.19313374999999999</v>
+        <v>0.32553172619047621</v>
       </c>
       <c r="H31" s="23">
         <f>A20-F31</f>
-        <v>13555353</v>
+        <v>11331067</v>
       </c>
       <c r="I31" s="35">
         <f>1-G31</f>
-        <v>0.80686625000000001</v>
-      </c>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
+        <v>0.67446827380952379</v>
+      </c>
+      <c r="J31" s="117"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1"/>
@@ -2055,12 +2093,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="105" t="s">
+      <c r="A35" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2069,10 +2107,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="102" t="s">
+      <c r="A36" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="102"/>
+      <c r="B36" s="110"/>
       <c r="C36" s="12" t="s">
         <v>17</v>
       </c>
@@ -2087,27 +2125,27 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="100">
+      <c r="A37" s="108">
         <f>A20-F31</f>
-        <v>13555353</v>
-      </c>
-      <c r="B37" s="101"/>
-      <c r="C37" s="84">
+        <v>11331067</v>
+      </c>
+      <c r="B37" s="109"/>
+      <c r="C37" s="83">
         <f>1-G31</f>
-        <v>0.80686625000000001</v>
+        <v>0.67446827380952379</v>
       </c>
       <c r="D37" s="24">
         <f>(C37/0.8)*100</f>
-        <v>100.85828125</v>
-      </c>
-      <c r="E37" s="95" t="s">
+        <v>84.308534226190474</v>
+      </c>
+      <c r="E37" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1"/>
@@ -2145,113 +2183,113 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="99"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="107"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="66"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="67"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="66"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="66"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="67"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="66"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="66"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="67"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="66"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="66"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="67"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="66"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="66"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="67"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="66"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="66"/>
-      <c r="B47" s="67"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="66"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="67"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="66"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="66"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="67"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="66"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="66"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="67"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="67"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="66"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="107"/>
-      <c r="E51" s="71"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="70"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2259,40 +2297,40 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="65"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="98"/>
-      <c r="J52" s="99"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="107"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="66"/>
+      <c r="A53" s="65"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="66"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="102"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2305,23 +2343,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="98"/>
-      <c r="C60" s="99"/>
+      <c r="B60" s="106"/>
+      <c r="C60" s="107"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="98"/>
-      <c r="C67" s="99"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="107"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2329,6 +2362,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-350 (Аквадив 0.35 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-350 (Аквадив 0.35 л.).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3849E0F-205F-4C12-9757-7818FEBA7D1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="13296"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -187,7 +195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -195,7 +203,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -750,7 +758,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -773,7 +781,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -783,8 +790,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -809,14 +814,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -883,8 +880,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -987,18 +982,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1012,19 +1047,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1122,6 +1156,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1157,6 +1208,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1332,61 +1400,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="105" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="36"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1394,81 +1462,81 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="95" t="s">
+      <c r="H4" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="96" t="s">
+      <c r="I4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="95" t="s">
+      <c r="L4" s="86" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="44">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="37">
         <v>1</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="51" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="39">
         <v>24</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="39">
         <v>24</v>
       </c>
-      <c r="F5" s="97"/>
-      <c r="G5" s="46">
+      <c r="F5" s="88"/>
+      <c r="G5" s="39">
         <f>E5-F5</f>
         <v>24</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="80"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="47">
+      <c r="H5" s="47"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="71"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="40">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="52" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1480,23 +1548,23 @@
       <c r="E6" s="9">
         <v>24</v>
       </c>
-      <c r="F6" s="98"/>
+      <c r="F6" s="89"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G16" si="0">E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="51"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="81"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="47">
+      <c r="L6" s="72"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="40">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="52" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1508,25 +1576,25 @@
       <c r="E7" s="9">
         <v>32</v>
       </c>
-      <c r="F7" s="98">
+      <c r="F7" s="89">
         <v>1</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="51"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="81"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="47">
+      <c r="L7" s="72"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="40">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="52" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1538,25 +1606,25 @@
       <c r="E8" s="9">
         <v>32</v>
       </c>
-      <c r="F8" s="98">
+      <c r="F8" s="89">
         <v>1</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="51"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="81"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="47">
+      <c r="L8" s="72"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="40">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="53" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1568,23 +1636,23 @@
       <c r="E9" s="9">
         <v>18</v>
       </c>
-      <c r="F9" s="98"/>
+      <c r="F9" s="89"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="52"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="81"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="47">
+      <c r="L9" s="72"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="40">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="52" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1596,23 +1664,23 @@
       <c r="E10" s="9">
         <v>20</v>
       </c>
-      <c r="F10" s="98"/>
+      <c r="F10" s="89"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="51"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="81"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="47">
+      <c r="L10" s="72"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="40">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="52" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1624,71 +1692,71 @@
       <c r="E11" s="9">
         <v>60</v>
       </c>
-      <c r="F11" s="98"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="52"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="34"/>
-    </row>
-    <row r="12" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A12" s="47">
+      <c r="L11" s="72"/>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="40">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="53" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="98"/>
+      <c r="F12" s="89"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="52"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="45"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="34"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A13" s="47">
+      <c r="L12" s="72"/>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="40">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="53" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="98"/>
+      <c r="F13" s="89"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="56" t="s">
+      <c r="H13" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="52"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="81"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A14" s="47">
+      <c r="L13" s="72"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="40">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -1700,25 +1768,25 @@
       <c r="E14" s="9">
         <v>50</v>
       </c>
-      <c r="F14" s="98">
-        <v>5</v>
+      <c r="F14" s="89">
+        <v>7</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="52"/>
+        <v>43</v>
+      </c>
+      <c r="H14" s="49"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="81"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A15" s="47">
+      <c r="L14" s="72"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="40">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="52" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1730,50 +1798,50 @@
       <c r="E15" s="9">
         <v>60</v>
       </c>
-      <c r="F15" s="98">
+      <c r="F15" s="89">
         <v>1</v>
       </c>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="52"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="81"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="48">
+      <c r="L15" s="72"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="42">
         <v>24</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="42">
         <v>24</v>
       </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="49">
+      <c r="F16" s="90"/>
+      <c r="G16" s="42">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="81"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="72"/>
-      <c r="B17" s="71"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="72"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="63"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1783,9 +1851,9 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="64" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="13"/>
@@ -1795,115 +1863,115 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-    </row>
-    <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A19" s="38" t="s">
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+    </row>
+    <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="42" t="s">
+      <c r="J19" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="82">
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="73">
         <f>D5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="84">
+      <c r="B20" s="75">
         <v>43749</v>
       </c>
-      <c r="C20" s="93">
+      <c r="C20" s="84">
         <v>43754</v>
       </c>
-      <c r="D20" s="84">
+      <c r="D20" s="75">
         <v>43756</v>
       </c>
-      <c r="E20" s="85">
+      <c r="E20" s="76">
         <v>1161008</v>
       </c>
-      <c r="F20" s="85">
+      <c r="F20" s="76">
         <v>1219183</v>
       </c>
-      <c r="G20" s="86">
+      <c r="G20" s="77">
         <f>F20/A$20</f>
         <v>7.2570416666666665E-2</v>
       </c>
-      <c r="H20" s="87">
+      <c r="H20" s="78">
         <f>A20-F20</f>
         <v>15580817</v>
       </c>
-      <c r="I20" s="88">
+      <c r="I20" s="79">
         <f>1-G20</f>
         <v>0.92742958333333336</v>
       </c>
-      <c r="J20" s="111"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-    </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="89">
+      <c r="J20" s="91"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="36"/>
+      <c r="B21" s="80">
         <v>43770</v>
       </c>
-      <c r="C21" s="89">
+      <c r="C21" s="80">
         <v>43780</v>
       </c>
-      <c r="D21" s="89">
+      <c r="D21" s="80">
         <v>43782</v>
       </c>
-      <c r="E21" s="90">
+      <c r="E21" s="81">
         <v>1914352</v>
       </c>
-      <c r="F21" s="90">
+      <c r="F21" s="81">
         <v>2025464</v>
       </c>
-      <c r="G21" s="86">
+      <c r="G21" s="77">
         <f>F21/A$20</f>
         <v>0.12056333333333333</v>
       </c>
-      <c r="H21" s="91">
-        <f>H20-F21</f>
+      <c r="H21" s="82">
+        <f t="shared" ref="H21:I23" si="2">H20-F21</f>
         <v>13555353</v>
       </c>
-      <c r="I21" s="92">
-        <f>I20-G21</f>
+      <c r="I21" s="83">
+        <f t="shared" si="2"/>
         <v>0.80686625000000001</v>
       </c>
-      <c r="J21" s="112"/>
+      <c r="J21" s="92"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A22" s="15"/>
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
       <c r="B22" s="10">
         <v>43832</v>
       </c>
@@ -1919,168 +1987,189 @@
       <c r="F22" s="11">
         <v>2224286</v>
       </c>
-      <c r="G22" s="86">
+      <c r="G22" s="77">
         <f>F22/A$20</f>
         <v>0.13239797619047619</v>
       </c>
-      <c r="H22" s="91">
-        <f>H21-F22</f>
+      <c r="H22" s="82">
+        <f t="shared" si="2"/>
         <v>11331067</v>
       </c>
-      <c r="I22" s="92">
-        <f>I21-G22</f>
+      <c r="I22" s="83">
+        <f t="shared" si="2"/>
         <v>0.67446827380952379</v>
       </c>
-      <c r="J22" s="113">
+      <c r="J22" s="93">
         <v>266</v>
       </c>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="15"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="77"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="10">
+        <v>43956</v>
+      </c>
+      <c r="C23" s="10">
+        <v>43964</v>
+      </c>
+      <c r="D23" s="10">
+        <v>43972</v>
+      </c>
+      <c r="E23" s="104">
+        <v>1711712</v>
+      </c>
+      <c r="F23" s="104">
+        <v>1804972</v>
+      </c>
+      <c r="G23" s="77">
+        <f>F23/A$20</f>
+        <v>0.10743880952380952</v>
+      </c>
+      <c r="H23" s="82">
+        <f t="shared" si="2"/>
+        <v>9526095</v>
+      </c>
+      <c r="I23" s="83">
+        <f t="shared" si="2"/>
+        <v>0.56702946428571432</v>
+      </c>
+      <c r="J23" s="98">
+        <v>263</v>
+      </c>
+      <c r="K23" s="68"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="15"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="78"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="69"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="15"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="77"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="68"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="15"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="77"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="68"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="15"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="77"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="68"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="15"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="77"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="68"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="15"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="77"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="68"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="116"/>
+    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="103"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="59">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="95">
         <f>SUM(E20:E30)</f>
-        <v>5199504</v>
-      </c>
-      <c r="F31" s="58">
+        <v>6911216</v>
+      </c>
+      <c r="F31" s="96">
         <f>SUM(F20:F30)</f>
-        <v>5468933</v>
-      </c>
-      <c r="G31" s="26">
+        <v>7273905</v>
+      </c>
+      <c r="G31" s="23">
         <f>SUM(G20:G30)</f>
-        <v>0.32553172619047621</v>
-      </c>
-      <c r="H31" s="23">
+        <v>0.43297053571428573</v>
+      </c>
+      <c r="H31" s="20">
         <f>A20-F31</f>
-        <v>11331067</v>
-      </c>
-      <c r="I31" s="35">
+        <v>9526095</v>
+      </c>
+      <c r="I31" s="28">
         <f>1-G31</f>
-        <v>0.67446827380952379</v>
-      </c>
-      <c r="J31" s="117"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-    </row>
-    <row r="34" spans="1:11">
+        <v>0.56702946428571432</v>
+      </c>
+      <c r="J31" s="94"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2092,13 +2181,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="101" t="s">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2106,11 +2195,11 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="110" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="110"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="12" t="s">
         <v>17</v>
       </c>
@@ -2124,30 +2213,30 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="108">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="111">
         <f>A20-F31</f>
-        <v>11331067</v>
-      </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="83">
+        <v>9526095</v>
+      </c>
+      <c r="B37" s="112"/>
+      <c r="C37" s="74">
         <f>1-G31</f>
-        <v>0.67446827380952379</v>
-      </c>
-      <c r="D37" s="24">
+        <v>0.56702946428571432</v>
+      </c>
+      <c r="D37" s="21">
         <f>(C37/0.8)*100</f>
-        <v>84.308534226190474</v>
-      </c>
-      <c r="E37" s="94" t="s">
+        <v>70.878683035714289</v>
+      </c>
+      <c r="E37" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2155,7 +2244,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2170,7 +2259,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6">
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2182,157 +2271,157 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="64"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="107"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="65"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="110"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="56"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="66"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="65"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="66"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="65"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="57"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="56"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="57"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="56"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="66"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="65"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="66"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="65"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="57"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="56"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="57"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="56"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="66"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="65"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="65"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="66"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="65"/>
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="66"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="65"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="57"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="56"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="56"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="57"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="56"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="57"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="56"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="66"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.6">
+      <c r="F50" s="57"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="57"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="70"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="61"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="64"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="107"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="65"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="55"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="110"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="56"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="66"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="102"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="65"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="114"/>
+      <c r="J53" s="114"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="56"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="102"/>
-      <c r="J54" s="102"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="114"/>
+      <c r="J54" s="114"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2342,19 +2431,24 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="60" spans="1:10">
-      <c r="B60" s="106"/>
-      <c r="C60" s="107"/>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="106"/>
-      <c r="C67" s="107"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="109"/>
+      <c r="C60" s="110"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="109"/>
+      <c r="C67" s="110"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2362,11 +2456,6 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2380,12 +2469,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2394,24 +2483,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-350 (Аквадив 0.35 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-350 (Аквадив 0.35 л.).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3849E0F-205F-4C12-9757-7818FEBA7D1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD461187-5095-4B45-8793-6972B82770F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$K$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Наименование деталей</t>
   </si>
@@ -40,12 +40,6 @@
     <t>Маркировка</t>
   </si>
   <si>
-    <t>Кол-во,  шт</t>
-  </si>
-  <si>
-    <t>Остаток, шт</t>
-  </si>
-  <si>
     <t>Черновая форма</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
     <t>Остаточный ресурс формо-комплекта, шт.</t>
   </si>
   <si>
-    <t>Марки-ровка</t>
-  </si>
-  <si>
     <t>Остаточный ресурс формо-комплекта, %.</t>
   </si>
   <si>
@@ -134,9 +125,6 @@
   </si>
   <si>
     <t>Фактическое количество деталей по акту приемки, шт.</t>
-  </si>
-  <si>
-    <t>Кол-во брака, шт</t>
   </si>
   <si>
     <t>Дата поставки  26.09.19 (c остаточным ресурсом 100 %)</t>
@@ -190,6 +178,9 @@
   </si>
   <si>
     <t>Вес, гр. (ном. 270 гр.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -349,7 +340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -472,35 +463,7 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -682,12 +645,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -697,12 +673,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -715,41 +689,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -758,7 +700,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -769,7 +711,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -793,29 +734,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -830,57 +768,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -889,7 +802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -912,9 +825,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -928,29 +838,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,38 +864,32 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1006,19 +904,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1033,33 +931,63 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1403,7 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1424,34 +1352,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
+      <c r="A1" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="119" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="29"/>
+      <c r="A2" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1462,386 +1390,378 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="M3" s="13"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="86" t="s">
-        <v>3</v>
-      </c>
+      <c r="I4" s="111"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="37">
+      <c r="A5" s="35">
         <v>1</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="39">
+      <c r="B5" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="36">
         <v>24</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="36">
         <v>24</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="39">
+      <c r="F5" s="72"/>
+      <c r="G5" s="36">
         <f>E5-F5</f>
         <v>24</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="71"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="110"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="40">
+      <c r="A6" s="37">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="B6" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="8">
         <v>24</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>24</v>
       </c>
-      <c r="F6" s="89"/>
-      <c r="G6" s="9">
+      <c r="F6" s="73"/>
+      <c r="G6" s="8">
         <f t="shared" ref="G6:G16" si="0">E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="72"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="110"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="40">
+      <c r="A7" s="37">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="B7" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="9">
+      <c r="D7" s="8">
         <v>32</v>
       </c>
-      <c r="F7" s="89">
+      <c r="E7" s="8">
+        <v>32</v>
+      </c>
+      <c r="F7" s="73">
         <v>1</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="72"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="110"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="40">
+      <c r="A8" s="37">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="B8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="9">
+      <c r="D8" s="8">
         <v>32</v>
       </c>
-      <c r="F8" s="89">
+      <c r="E8" s="8">
+        <v>32</v>
+      </c>
+      <c r="F8" s="73">
         <v>1</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="72"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="110"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="40">
+      <c r="A9" s="37">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="B9" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="8">
         <v>18</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>18</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="9">
+      <c r="F9" s="73"/>
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="72"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="110"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="40">
+      <c r="A10" s="37">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>20</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>20</v>
       </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="9">
+      <c r="F10" s="73"/>
+      <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="72"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="110"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="40">
+      <c r="A11" s="37">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="B11" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="8">
         <v>60</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>60</v>
       </c>
-      <c r="F11" s="89"/>
-      <c r="G11" s="9">
+      <c r="F11" s="73"/>
+      <c r="G11" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="27"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40">
+      <c r="A12" s="37">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="9">
+      <c r="B12" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="27"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="25"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40">
+      <c r="A13" s="37">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="9">
+      <c r="B13" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="45"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="72"/>
+      <c r="H13" s="108" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="113"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="110"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40">
+      <c r="A14" s="37">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="8">
+        <v>50</v>
+      </c>
+      <c r="E14" s="8">
+        <v>50</v>
+      </c>
+      <c r="F14" s="73">
         <v>7</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="9">
-        <v>50</v>
-      </c>
-      <c r="E14" s="9">
-        <v>50</v>
-      </c>
-      <c r="F14" s="89">
-        <v>7</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="72"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="110"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40">
+      <c r="A15" s="37">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="B15" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="8">
         <v>60</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>60</v>
       </c>
-      <c r="F15" s="89">
+      <c r="F15" s="73">
         <v>1</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="72"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="110"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
+      <c r="A16" s="38">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="42">
+      <c r="B16" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="39">
         <v>24</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="39">
         <v>24</v>
       </c>
-      <c r="F16" s="90"/>
-      <c r="G16" s="42">
+      <c r="F16" s="74"/>
+      <c r="G16" s="39">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="72"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="110"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
-      <c r="B17" s="62"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1853,321 +1773,407 @@
     </row>
     <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="B18" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
     </row>
     <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="32" t="s">
+      <c r="I19" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
+      <c r="J19" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="73">
+      <c r="A20" s="59">
         <f>D5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="75">
+      <c r="B20" s="61">
         <v>43749</v>
       </c>
-      <c r="C20" s="84">
+      <c r="C20" s="70">
         <v>43754</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="61">
         <v>43756</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="62">
         <v>1161008</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="62">
         <v>1219183</v>
       </c>
-      <c r="G20" s="77">
-        <f>F20/A$20</f>
+      <c r="G20" s="63">
+        <f t="shared" ref="G20:G26" si="2">F20/A$20</f>
         <v>7.2570416666666665E-2</v>
       </c>
-      <c r="H20" s="78">
+      <c r="H20" s="64">
         <f>A20-F20</f>
         <v>15580817</v>
       </c>
-      <c r="I20" s="79">
+      <c r="I20" s="65">
         <f>1-G20</f>
         <v>0.92742958333333336</v>
       </c>
-      <c r="J20" s="91"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="80">
+      <c r="A21" s="34"/>
+      <c r="B21" s="66">
         <v>43770</v>
       </c>
-      <c r="C21" s="80">
+      <c r="C21" s="66">
         <v>43780</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="66">
         <v>43782</v>
       </c>
-      <c r="E21" s="81">
+      <c r="E21" s="67">
         <v>1914352</v>
       </c>
-      <c r="F21" s="81">
+      <c r="F21" s="67">
         <v>2025464</v>
       </c>
-      <c r="G21" s="77">
-        <f>F21/A$20</f>
+      <c r="G21" s="63">
+        <f t="shared" si="2"/>
         <v>0.12056333333333333</v>
       </c>
-      <c r="H21" s="82">
-        <f t="shared" ref="H21:I23" si="2">H20-F21</f>
+      <c r="H21" s="68">
+        <f t="shared" ref="H21:I23" si="3">H20-F21</f>
         <v>13555353</v>
       </c>
-      <c r="I21" s="83">
-        <f t="shared" si="2"/>
+      <c r="I21" s="69">
+        <f t="shared" si="3"/>
         <v>0.80686625000000001</v>
       </c>
-      <c r="J21" s="92"/>
+      <c r="J21" s="76"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="10">
+      <c r="A22" s="13"/>
+      <c r="B22" s="9">
         <v>43832</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>43842</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>43857</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>2124144</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>2224286</v>
       </c>
-      <c r="G22" s="77">
-        <f>F22/A$20</f>
+      <c r="G22" s="63">
+        <f t="shared" si="2"/>
         <v>0.13239797619047619</v>
       </c>
-      <c r="H22" s="82">
+      <c r="H22" s="68">
+        <f t="shared" si="3"/>
+        <v>11331067</v>
+      </c>
+      <c r="I22" s="69">
+        <f t="shared" si="3"/>
+        <v>0.67446827380952379</v>
+      </c>
+      <c r="J22" s="77">
+        <v>266</v>
+      </c>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="9">
+        <v>43956</v>
+      </c>
+      <c r="C23" s="9">
+        <v>43964</v>
+      </c>
+      <c r="D23" s="9">
+        <v>43972</v>
+      </c>
+      <c r="E23" s="88">
+        <v>1711712</v>
+      </c>
+      <c r="F23" s="88">
+        <v>1804972</v>
+      </c>
+      <c r="G23" s="63">
         <f t="shared" si="2"/>
-        <v>11331067</v>
-      </c>
-      <c r="I22" s="83">
+        <v>0.10743880952380952</v>
+      </c>
+      <c r="H23" s="68">
+        <f t="shared" si="3"/>
+        <v>9526095</v>
+      </c>
+      <c r="I23" s="69">
+        <f t="shared" si="3"/>
+        <v>0.56702946428571432</v>
+      </c>
+      <c r="J23" s="82">
+        <v>263</v>
+      </c>
+      <c r="K23" s="56"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="9">
+        <v>44053</v>
+      </c>
+      <c r="C24" s="9">
+        <v>44060</v>
+      </c>
+      <c r="D24" s="9">
+        <v>44070</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1592512</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1643360</v>
+      </c>
+      <c r="G24" s="63">
         <f t="shared" si="2"/>
-        <v>0.67446827380952379</v>
-      </c>
-      <c r="J22" s="93">
-        <v>266</v>
-      </c>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="10">
-        <v>43956</v>
-      </c>
-      <c r="C23" s="10">
-        <v>43964</v>
-      </c>
-      <c r="D23" s="10">
-        <v>43972</v>
-      </c>
-      <c r="E23" s="104">
-        <v>1711712</v>
-      </c>
-      <c r="F23" s="104">
-        <v>1804972</v>
-      </c>
-      <c r="G23" s="77">
-        <f>F23/A$20</f>
-        <v>0.10743880952380952</v>
-      </c>
-      <c r="H23" s="82">
+        <v>9.7819047619047625E-2</v>
+      </c>
+      <c r="H24" s="68">
+        <f t="shared" ref="H24" si="4">H23-F24</f>
+        <v>7882735</v>
+      </c>
+      <c r="I24" s="69">
+        <f t="shared" ref="I24" si="5">I23-G24</f>
+        <v>0.46921041666666669</v>
+      </c>
+      <c r="J24" s="77">
+        <v>263</v>
+      </c>
+      <c r="K24" s="57"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="93">
+        <v>44125</v>
+      </c>
+      <c r="C25" s="93">
+        <v>44133</v>
+      </c>
+      <c r="D25" s="93">
+        <v>44137</v>
+      </c>
+      <c r="E25" s="94">
+        <v>1745088</v>
+      </c>
+      <c r="F25" s="94">
+        <v>1833473</v>
+      </c>
+      <c r="G25" s="63">
         <f t="shared" si="2"/>
-        <v>9526095</v>
-      </c>
-      <c r="I23" s="83">
+        <v>0.10913529761904762</v>
+      </c>
+      <c r="H25" s="68">
+        <f t="shared" ref="H25" si="6">H24-F25</f>
+        <v>6049262</v>
+      </c>
+      <c r="I25" s="69">
+        <f t="shared" ref="I25" si="7">I24-G25</f>
+        <v>0.36007511904761907</v>
+      </c>
+      <c r="J25" s="77">
+        <v>263</v>
+      </c>
+      <c r="K25" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="9">
+        <v>44205</v>
+      </c>
+      <c r="C26" s="9">
+        <v>44216</v>
+      </c>
+      <c r="D26" s="9">
+        <v>44228</v>
+      </c>
+      <c r="E26" s="89">
+        <v>2233808</v>
+      </c>
+      <c r="F26" s="89">
+        <v>2290882</v>
+      </c>
+      <c r="G26" s="23">
         <f t="shared" si="2"/>
-        <v>0.56702946428571432</v>
-      </c>
-      <c r="J23" s="98">
-        <v>263</v>
-      </c>
-      <c r="K23" s="68"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="68"/>
+        <v>0.13636202380952381</v>
+      </c>
+      <c r="H26" s="68">
+        <f t="shared" ref="H26" si="8">H25-F26</f>
+        <v>3758380</v>
+      </c>
+      <c r="I26" s="69">
+        <f t="shared" ref="I26" si="9">I25-G26</f>
+        <v>0.22371309523809527</v>
+      </c>
+      <c r="J26" s="77">
+        <v>264</v>
+      </c>
+      <c r="K26" s="56"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="68"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="9">
+        <v>44299</v>
+      </c>
+      <c r="C27" s="9">
+        <v>44311</v>
+      </c>
+      <c r="D27" s="9">
+        <v>44319</v>
+      </c>
+      <c r="E27" s="89">
+        <v>2655776</v>
+      </c>
+      <c r="F27" s="89">
+        <v>2717471</v>
+      </c>
+      <c r="G27" s="23">
+        <f t="shared" ref="G27" si="10">F27/A$20</f>
+        <v>0.16175422619047619</v>
+      </c>
+      <c r="H27" s="68">
+        <f t="shared" ref="H27" si="11">H26-F27</f>
+        <v>1040909</v>
+      </c>
+      <c r="I27" s="69">
+        <f t="shared" ref="I27" si="12">I26-G27</f>
+        <v>6.1958869047619075E-2</v>
+      </c>
+      <c r="J27" s="77">
+        <v>264</v>
+      </c>
+      <c r="K27" s="56"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="68"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="56"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="68"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="56"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="103"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="87"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="95">
+      <c r="A31" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="79">
         <f>SUM(E20:E30)</f>
-        <v>6911216</v>
-      </c>
-      <c r="F31" s="96">
+        <v>15138400</v>
+      </c>
+      <c r="F31" s="80">
         <f>SUM(F20:F30)</f>
-        <v>7273905</v>
-      </c>
-      <c r="G31" s="23">
+        <v>15759091</v>
+      </c>
+      <c r="G31" s="22">
         <f>SUM(G20:G30)</f>
-        <v>0.43297053571428573</v>
-      </c>
-      <c r="H31" s="20">
+        <v>0.93804113095238095</v>
+      </c>
+      <c r="H31" s="19">
         <f>A20-F31</f>
-        <v>9526095</v>
-      </c>
-      <c r="I31" s="28">
+        <v>1040909</v>
+      </c>
+      <c r="I31" s="26">
         <f>1-G31</f>
-        <v>0.56702946428571432</v>
-      </c>
-      <c r="J31" s="94"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
+        <v>6.1958869047619047E-2</v>
+      </c>
+      <c r="J31" s="78"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
@@ -2182,12 +2188,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="116" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
+      <c r="A35" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2196,15 +2202,15 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="113" t="s">
+      <c r="A36" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="105"/>
+      <c r="C36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="B36" s="113"/>
-      <c r="C36" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2214,27 +2220,27 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="111">
+      <c r="A37" s="103">
         <f>A20-F31</f>
-        <v>9526095</v>
-      </c>
-      <c r="B37" s="112"/>
-      <c r="C37" s="74">
+        <v>1040909</v>
+      </c>
+      <c r="B37" s="104"/>
+      <c r="C37" s="60">
         <f>1-G31</f>
-        <v>0.56702946428571432</v>
-      </c>
-      <c r="D37" s="21">
+        <v>6.1958869047619047E-2</v>
+      </c>
+      <c r="D37" s="20">
         <f>(C37/0.8)*100</f>
-        <v>70.878683035714289</v>
-      </c>
-      <c r="E37" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
+        <v>7.7448586309523808</v>
+      </c>
+      <c r="E37" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
@@ -2256,7 +2262,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2272,113 +2278,113 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="110"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="102"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="56"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="57"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="46"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="57"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="46"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="56"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="57"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="46"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="56"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="57"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="46"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="56"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="57"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="46"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="56"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="56"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="57"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="46"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="56"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="57"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="46"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="56"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="57"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="46"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="117"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="61"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="50"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2386,40 +2392,40 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="55"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="109"/>
-      <c r="J52" s="110"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="102"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="56"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="114"/>
-      <c r="J53" s="114"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="97"/>
+      <c r="J53" s="97"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="56"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="114"/>
-      <c r="J54" s="114"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="97"/>
+      <c r="J54" s="97"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
@@ -2432,23 +2438,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="109"/>
-      <c r="C60" s="110"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="102"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="109"/>
-      <c r="C67" s="110"/>
+      <c r="B67" s="101"/>
+      <c r="C67" s="102"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2456,6 +2457,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
